--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecr\Documents\AP\2eJ-semester2\AI Project\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088DC82-DEF8-40BD-B657-6AF7853AA6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59F8B2-6D2C-4D2D-A69B-2E054D9B60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="106">
   <si>
     <t>Dashboard</t>
   </si>
@@ -439,9 +439,6 @@
     <t>KBO-data ophalen</t>
   </si>
   <si>
-    <t>Authenticatie</t>
-  </si>
-  <si>
     <t>CRM-integratie</t>
   </si>
   <si>
@@ -464,6 +461,15 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>Gebruikersbeheer &amp; Authenticatie</t>
+  </si>
+  <si>
+    <t>CVBeheer</t>
+  </si>
+  <si>
+    <t>REQ-NF03</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -845,6 +851,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,6 +862,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -865,6 +878,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -874,15 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1779,7 +1788,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1792,36 +1801,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1988,18 +1997,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -2046,30 +2055,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -2087,12 +2096,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2338,166 +2347,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -2507,6 +2510,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2535,18 +2544,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -2593,30 +2602,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -2634,12 +2643,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2885,166 +2894,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -3054,6 +3057,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3066,13 +3075,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="107.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
@@ -3080,12 +3089,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -3099,12 +3108,12 @@
       <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3118,10 +3127,10 @@
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -3135,10 +3144,10 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3152,10 +3161,10 @@
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -3169,10 +3178,10 @@
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -3186,10 +3195,10 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3203,10 +3212,10 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3220,10 +3229,10 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3260,10 +3269,10 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -3280,19 +3289,23 @@
       <c r="C13" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -3304,23 +3317,27 @@
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>83</v>
@@ -3328,40 +3345,49 @@
       <c r="C17" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
@@ -3530,9 +3556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,18 +3574,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L2" s="2" t="s">
@@ -3666,7 +3692,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3680,18 +3706,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -3713,19 +3739,25 @@
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="39">
+        <v>46058</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="39">
+        <v>46076</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -3740,32 +3772,32 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -3783,12 +3815,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -4034,160 +4066,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -4197,12 +4235,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4231,18 +4263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -4289,30 +4321,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -4330,12 +4362,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -4581,166 +4613,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -4750,6 +4776,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4778,18 +4810,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -4836,30 +4868,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -4877,12 +4909,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -5128,166 +5160,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -5297,6 +5323,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5325,18 +5357,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -5383,30 +5415,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -5424,12 +5456,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -5675,166 +5707,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -5844,6 +5870,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5872,18 +5904,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -5930,30 +5962,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -5971,12 +6003,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -6222,166 +6254,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6391,6 +6417,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6419,18 +6451,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -6477,30 +6509,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -6518,12 +6550,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -6769,166 +6801,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6938,6 +6964,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6947,6 +6979,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB83581AE75E3448E2425BE2C4A9358" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3613ffd620ebef032c0b03220f523539">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87f001ec-f7b3-49be-8676-481a173a404e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="972cec87c5ab16132ba820573bf22a25" ns2:_="">
     <xsd:import namespace="87f001ec-f7b3-49be-8676-481a173a404e"/>
@@ -7078,22 +7125,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="87f001ec-f7b3-49be-8676-481a173a404e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5025CB3-4618-43BF-8CBB-8A6ABF966F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7109,28 +7165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="87f001ec-f7b3-49be-8676-481a173a404e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecr\Documents\AP\2eJ-semester2\AI Project\AI-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\Vakken\J2S2\AI_Project\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59F8B2-6D2C-4D2D-A69B-2E054D9B60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E895FE1-DDFC-46B9-83F4-5A32693B1011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
   <si>
     <t>Dashboard</t>
   </si>
@@ -415,9 +415,6 @@
     <t>Het systeem haalt bedrijfsinformatie op uit vacatures op en slaat deze op in de database.</t>
   </si>
   <si>
-    <t>Het systeem haalt bedrijfsinformatie op uit de KBO-databank om prospecten te verrijken.</t>
-  </si>
-  <si>
     <t>Gebruikers moeten kunnen inloggen om toegang te krijgen tot de applicatie.</t>
   </si>
   <si>
@@ -433,18 +430,9 @@
     <t>Filteren op technologie</t>
   </si>
   <si>
-    <t>Vacatures ophalen</t>
-  </si>
-  <si>
-    <t>KBO-data ophalen</t>
-  </si>
-  <si>
     <t>CRM-integratie</t>
   </si>
   <si>
-    <t>REQ-NF01</t>
-  </si>
-  <si>
     <t>REQ-NF02</t>
   </si>
   <si>
@@ -466,10 +454,76 @@
     <t>Gebruikersbeheer &amp; Authenticatie</t>
   </si>
   <si>
-    <t>CVBeheer</t>
-  </si>
-  <si>
-    <t>REQ-NF03</t>
+    <t>Prospectielijsten beheer</t>
+  </si>
+  <si>
+    <t>REQ-F07</t>
+  </si>
+  <si>
+    <t>Productsformulier beheer</t>
+  </si>
+  <si>
+    <t>REQ-NF04</t>
+  </si>
+  <si>
+    <t>Feedback beheer</t>
+  </si>
+  <si>
+    <t>Rapporten beheer</t>
+  </si>
+  <si>
+    <t>REQ-NF05</t>
+  </si>
+  <si>
+    <t>REQ-NF06</t>
+  </si>
+  <si>
+    <t>Model hertraining</t>
+  </si>
+  <si>
+    <t>REQ-F08</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>GH-01</t>
+  </si>
+  <si>
+    <t>Database opstellen</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik mijn data opslaan zodat mijn data later toegankelijk is</t>
+  </si>
+  <si>
+    <t>Cloud Omgeving inrichten</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een schaalbare cloud-omgeving inrichting, zodat de web app overal ter wereld bereikbaar is via het internet.</t>
+  </si>
+  <si>
+    <t>Secrets &amp; Environment Variables</t>
+  </si>
+  <si>
+    <t>Als security specialist wil ik dat gevoelige gegevens veilig worden opgeslagen in een environment variables, zodat deze niet zichtbaar zijn in de broncode.</t>
+  </si>
+  <si>
+    <t>Gegevens ophalen</t>
+  </si>
+  <si>
+    <t>Als developer wil ik database-schema's automatisch worden bijgewerkt tijdens de deployment, zodat de data-structuur altijd in sync is met de applicatiecode.</t>
+  </si>
+  <si>
+    <t>Database Migratie (vacatures)</t>
+  </si>
+  <si>
+    <t>Database Migratie (bedrijven)</t>
+  </si>
+  <si>
+    <t>Als developer zil ik de web applicatie verpakken in een Docker-container zodat de applicatie consistent functioneert in elke omgeving en we geen last hebben van verschillen in lokale serverconfiguraties.</t>
+  </si>
+  <si>
+    <t>Containerisatie met Docker</t>
   </si>
 </sst>
 </file>
@@ -587,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -806,12 +860,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,6 +922,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,13 +962,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="111">
     <dxf>
@@ -1337,8 +1407,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J4" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A3:J4" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J9" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A3:J9" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="105"/>
     <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="104"/>
@@ -1489,9 +1559,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1529,7 +1599,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1635,7 +1705,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1777,7 +1847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1788,56 +1858,56 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,12 +1963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +1979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1986,31 +2056,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -2024,63 +2094,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2094,16 +2164,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2135,7 +2205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2147,7 +2217,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2159,7 +2229,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2171,7 +2241,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2183,7 +2253,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2195,7 +2265,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2207,7 +2277,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2219,7 +2289,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2231,7 +2301,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2243,7 +2313,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2255,7 +2325,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2267,7 +2337,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2279,7 +2349,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2291,7 +2361,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2303,7 +2373,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2329,7 +2399,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -2343,161 +2413,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2533,31 +2603,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -2571,63 +2641,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2641,16 +2711,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +2752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2694,7 +2764,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2706,7 +2776,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2718,7 +2788,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2730,7 +2800,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2742,7 +2812,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2754,7 +2824,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2766,7 +2836,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2778,7 +2848,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2790,7 +2860,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2802,7 +2872,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2814,7 +2884,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2826,7 +2896,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2838,7 +2908,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2850,7 +2920,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2876,7 +2946,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -2890,161 +2960,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3075,26 +3145,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="107.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="107.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -3107,13 +3177,13 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3126,11 +3196,11 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -3143,11 +3213,11 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3160,11 +3230,11 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -3177,11 +3247,11 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -3194,11 +3264,11 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3211,11 +3281,11 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3228,11 +3298,11 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3245,7 +3315,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -3259,15 +3329,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>78</v>
@@ -3276,12 +3346,12 @@
         <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>92</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>79</v>
@@ -3290,12 +3360,12 @@
         <v>85</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>80</v>
@@ -3304,12 +3374,12 @@
         <v>86</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>81</v>
@@ -3318,230 +3388,256 @@
         <v>87</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>88</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}"/>
+  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D26">
+      <sortCondition ref="B10"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D9"/>
@@ -3556,43 +3652,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.08984375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3627,11 +3723,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3642,27 +3746,109 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="L8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="L9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L10" t="s">
         <v>34</v>
       </c>
@@ -3672,10 +3858,10 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I9" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
       <formula1>$L$8:$L$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -3690,36 +3876,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -3735,23 +3921,23 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="23">
         <v>46058</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="23">
         <v>46076</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -3759,47 +3945,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -3813,16 +3999,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3854,7 +4040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3866,7 +4052,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3878,7 +4064,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3890,7 +4076,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3902,7 +4088,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3914,7 +4100,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3926,7 +4112,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3938,7 +4124,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
       <c r="C24" s="3"/>
@@ -3950,7 +4136,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3962,7 +4148,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3974,7 +4160,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3986,7 +4172,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3998,7 +4184,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4010,7 +4196,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4022,7 +4208,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4048,7 +4234,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -4062,161 +4248,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4252,31 +4438,31 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -4290,63 +4476,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -4360,16 +4546,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4401,7 +4587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4413,7 +4599,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4425,7 +4611,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4437,7 +4623,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4449,7 +4635,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4461,7 +4647,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4473,7 +4659,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4485,7 +4671,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4497,7 +4683,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4509,7 +4695,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4521,7 +4707,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4533,7 +4719,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4545,7 +4731,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4557,7 +4743,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4569,7 +4755,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4595,7 +4781,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -4609,161 +4795,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4799,31 +4985,31 @@
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -4837,63 +5023,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -4907,16 +5093,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4948,7 +5134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4960,7 +5146,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4972,7 +5158,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4984,7 +5170,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4996,7 +5182,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5008,7 +5194,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5020,7 +5206,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5032,7 +5218,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5044,7 +5230,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5056,7 +5242,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5068,7 +5254,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5080,7 +5266,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5092,7 +5278,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5104,7 +5290,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5116,7 +5302,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5142,7 +5328,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -5156,161 +5342,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5346,31 +5532,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -5384,63 +5570,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -5454,16 +5640,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5495,7 +5681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5507,7 +5693,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5519,7 +5705,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5531,7 +5717,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5543,7 +5729,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5555,7 +5741,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5567,7 +5753,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5579,7 +5765,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5591,7 +5777,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5603,7 +5789,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5615,7 +5801,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5627,7 +5813,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5639,7 +5825,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5651,7 +5837,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5663,7 +5849,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5689,7 +5875,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -5703,161 +5889,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5893,31 +6079,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -5931,63 +6117,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -6001,16 +6187,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -6042,7 +6228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6054,7 +6240,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6066,7 +6252,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6078,7 +6264,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6090,7 +6276,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6102,7 +6288,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6114,7 +6300,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6126,7 +6312,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6138,7 +6324,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6150,7 +6336,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6162,7 +6348,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6174,7 +6360,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6186,7 +6372,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6198,7 +6384,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6210,7 +6396,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6236,7 +6422,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -6250,161 +6436,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6440,31 +6626,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -6478,63 +6664,63 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -6548,16 +6734,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -6589,7 +6775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6601,7 +6787,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6613,7 +6799,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6625,7 +6811,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6637,7 +6823,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6649,7 +6835,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6661,7 +6847,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6673,7 +6859,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6685,7 +6871,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6697,7 +6883,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6709,7 +6895,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6721,7 +6907,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6733,7 +6919,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6745,7 +6931,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6757,7 +6943,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6783,7 +6969,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -6797,161 +6983,161 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\Vakken\J2S2\AI_Project\AI-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\Vakken\J2S2\AI Project\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E895FE1-DDFC-46B9-83F4-5A32693B1011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529480D-22E7-44B8-A82A-8595532C1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="180">
   <si>
     <t>Dashboard</t>
   </si>
@@ -409,9 +409,6 @@
     <t>Als gebruiker wil ik bedrijven kunnen zoeken op basis van een zoekopdracht (query), zodat ik potentiële klanten kan vinden.</t>
   </si>
   <si>
-    <t>Als gebruiker wil ik zoekresultaten kunnen filteren op relevante technologieën, zodat ik gerichte prospectielijsten krijg.</t>
-  </si>
-  <si>
     <t>Het systeem haalt bedrijfsinformatie op uit vacatures op en slaat deze op in de database.</t>
   </si>
   <si>
@@ -421,15 +418,9 @@
     <t>Het systeem biedt een REST API aan voor integratie met een extern CRM-systeem.</t>
   </si>
   <si>
-    <t>Bedrijven zoeken</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
-    <t>Filteren op technologie</t>
-  </si>
-  <si>
     <t>CRM-integratie</t>
   </si>
   <si>
@@ -460,9 +451,6 @@
     <t>REQ-F07</t>
   </si>
   <si>
-    <t>Productsformulier beheer</t>
-  </si>
-  <si>
     <t>REQ-NF04</t>
   </si>
   <si>
@@ -472,15 +460,6 @@
     <t>Rapporten beheer</t>
   </si>
   <si>
-    <t>REQ-NF05</t>
-  </si>
-  <si>
-    <t>REQ-NF06</t>
-  </si>
-  <si>
-    <t>Model hertraining</t>
-  </si>
-  <si>
     <t>REQ-F08</t>
   </si>
   <si>
@@ -524,6 +503,195 @@
   </si>
   <si>
     <t>Containerisatie met Docker</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Zoeken en filteren</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik zoekresultaten kunnen filteren op relevante tags, zodat ik gerichte prospectielijsten krijg.</t>
+  </si>
+  <si>
+    <t>Bedrijfsprofiel zoeken</t>
+  </si>
+  <si>
+    <t>Lijst filteren</t>
+  </si>
+  <si>
+    <t>Inloggen</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik inloggen zodat ik toegang heb tot mijn persoonlijke account.</t>
+  </si>
+  <si>
+    <t>Account creatie</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik een account maken zodat een gebruiker het kan gebruiken.</t>
+  </si>
+  <si>
+    <t>Rollen toewijzen</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik een rol toewijzen zodat de gebruiker bepaalde rechten heeft.</t>
+  </si>
+  <si>
+    <t>Inlog</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik dat mijn persoonlijke inloggegevens gehashed wordt zodat het veilig opgeslaan is.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik mijn prospectielijsten opslaan zodat ik later het kan bekijken.</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik mijn prospectielijsten bewerken zodat ik het kan aanpassen.</t>
+  </si>
+  <si>
+    <t>Setup development</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik mijn prospectielijsten verwijderen zodat het verdwijnt.</t>
+  </si>
+  <si>
+    <t>Prospectielijst opslaan</t>
+  </si>
+  <si>
+    <t>Prospectielijst bewerken</t>
+  </si>
+  <si>
+    <t>Prospectielijst verwijderen</t>
+  </si>
+  <si>
+    <t>Model (her)training</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik mijn model automatisch of manueel (via een knop) hertrainen zodat het up to date blijft.</t>
+  </si>
+  <si>
+    <t>Hertraining model</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik een versiebeheer van mijn model zodat ik een ander versie kan gebruiken.</t>
+  </si>
+  <si>
+    <t>Model versiebeheer</t>
+  </si>
+  <si>
+    <t>Als data engineer wil ik dat ik data kan verwerken zodat de performantie van het model beter wordt.</t>
+  </si>
+  <si>
+    <t>Data engineering</t>
+  </si>
+  <si>
+    <t>Scrum planning opzetten</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een duidelijke scrum planning zodat ik efficiënt kan werken.</t>
+  </si>
+  <si>
+    <t>Github repository opzetten</t>
+  </si>
+  <si>
+    <t>Blue print bespreking</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een versiebeheer zodat ik het kan delen met mijn mededevelopers.</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een vaste blue print zodat er geen verwarring gebeurt.</t>
+  </si>
+  <si>
+    <t>Github planning</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een Scrumboard zodat ik een overzicht heb van alle taken.</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik leidraad zodat ik weet hoe alles werkt.</t>
+  </si>
+  <si>
+    <t>Hulp interface</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik een mooi en eenvoudig interface zodat ik eenvoudig kan navigeren.</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Handleiding</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik een handleiding zodat ik weet hoe ik de applicatie kan gebruiken.</t>
+  </si>
+  <si>
+    <t>REQ-NF03</t>
+  </si>
+  <si>
+    <t>REQ-NF01</t>
+  </si>
+  <si>
+    <t>Formulier beheer</t>
+  </si>
+  <si>
+    <t>Productsformulier</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik een productsformulier invullen zodat ik een prospectielijst kan genereren van potentiele klanten.</t>
+  </si>
+  <si>
+    <t>Klantsformulier</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik een klantsformulier invullen zodat ik een prospectielijst kan genereren van bedrijven met openstaande vacatures.</t>
+  </si>
+  <si>
+    <t>Formulier opslaan</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik mijn formuliers opslaan zodat ik later terug kan hergebruiken.</t>
+  </si>
+  <si>
+    <t>AI model toepassing</t>
+  </si>
+  <si>
+    <t>REQ-F09</t>
+  </si>
+  <si>
+    <t>Prestatie overzicht</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik rapporten kunnen bekijken over systeemgebruik zodat ik weet hoe goed mijn model presteert.</t>
+  </si>
+  <si>
+    <t>Feedback overzicht</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik de feedback van gebruikers zien zodat ik weet of gebruikers tevreden zijn van de resultaten.</t>
+  </si>
+  <si>
+    <t>Model feedback verwerken</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik feedback geven bij de prospects zodat het model persoonlijk op mij afgestemt is.</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Voyage API integratie</t>
+  </si>
+  <si>
+    <t>Als developer wil ik dat data omgezet wordt in embeddings zodat het model de data kan verwerken.</t>
+  </si>
+  <si>
+    <t>Als developer wil ik dat er een algoritme is voor rankings zodat de resultaten gerangschikt worden.</t>
   </si>
 </sst>
 </file>
@@ -641,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -873,12 +1041,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,9 +1096,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -951,8 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -962,6 +1138,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1377,10 +1582,10 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5275A149-D9C7-4765-8593-A42F0BE5A234}" name="Status"/>
     <tableColumn id="2" xr3:uid="{5D1A658E-6171-4853-98CD-6AB729C001BE}" name="Totaal aantal" dataDxfId="109">
-      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$51, B15)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$52, B15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8E35AA80-EB15-4700-9B95-52F62AF6B801}" name="Aantal SP" dataDxfId="108">
-      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$51, B15, Backlog!$G$4:$G$51)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1388,171 +1593,174 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J9" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A3:J9" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J36" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J36" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J36">
+    <sortCondition ref="C3:C36"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1871,36 +2079,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
@@ -1984,11 +2192,11 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Backlog!$I$4:$I$51, B15)</f>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B15)</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUMIF(Backlog!$I$4:$I$51, B15, Backlog!$G$4:$G$51)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</f>
         <v>0</v>
       </c>
     </row>
@@ -1997,11 +2205,11 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Backlog!$I$4:$I$51, B16)</f>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B16)</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUMIF(Backlog!$I$4:$I$51, B16, Backlog!$G$4:$G$51)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B16, Backlog!$G$4:$G$52)</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,11 +2218,11 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Backlog!$I$4:$I$51, B17)</f>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B17)</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>SUMIF(Backlog!$I$4:$I$51, B17, Backlog!$G$4:$G$51)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B17, Backlog!$G$4:$G$52)</f>
         <v>0</v>
       </c>
     </row>
@@ -2067,18 +2275,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -2125,30 +2333,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -2166,12 +2374,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -2417,160 +2625,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -2580,12 +2794,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2614,18 +2822,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -2672,30 +2880,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -2713,12 +2921,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -2964,157 +3172,1977 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="107.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E24">
+      <sortCondition ref="B10"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I36" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
+      <formula1>$L$3:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E36" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
+      <formula1>$L$8:$L$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="22">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="22">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="F15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUM(F17:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3133,1294 +5161,6 @@
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="B35:J35"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-  <dimension ref="A1:O54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="107.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D26">
-      <sortCondition ref="B10"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="47.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I9" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
-      <formula1>$L$3:$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
-      <formula1>$L$8:$L$10</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="23">
-        <v>46058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="23">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F17:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4449,18 +5189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -4507,30 +5247,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -4548,12 +5288,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -4799,160 +5539,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -4962,12 +5708,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4996,18 +5736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -5054,30 +5794,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5095,12 +5835,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -5346,160 +6086,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -5509,12 +6255,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5543,18 +6283,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -5601,30 +6341,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5642,12 +6382,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -5893,160 +6633,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6056,12 +6802,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6090,18 +6830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -6148,30 +6888,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -6189,12 +6929,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6440,160 +7180,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6603,12 +7349,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6637,18 +7377,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -6695,30 +7435,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -6736,12 +7476,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6987,160 +7727,166 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7150,12 +7896,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7171,15 +7911,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB83581AE75E3448E2425BE2C4A9358" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3613ffd620ebef032c0b03220f523539">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87f001ec-f7b3-49be-8676-481a173a404e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="972cec87c5ab16132ba820573bf22a25" ns2:_="">
     <xsd:import namespace="87f001ec-f7b3-49be-8676-481a173a404e"/>
@@ -7311,6 +8042,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
   <ds:schemaRefs>
@@ -7328,14 +8068,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5025CB3-4618-43BF-8CBB-8A6ABF966F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7351,4 +8083,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\Vakken\J2S2\AI Project\AI-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\J2S2\AI Project\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529480D-22E7-44B8-A82A-8595532C1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C70AB-D512-4ABB-BD5C-8ED81627236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="223">
   <si>
     <t>Dashboard</t>
   </si>
@@ -376,9 +376,6 @@
     <t>https://github.com/RichardStepanajtjs/AI-Project</t>
   </si>
   <si>
-    <t>ETL</t>
-  </si>
-  <si>
     <t>Soufiane Koujil</t>
   </si>
   <si>
@@ -493,15 +490,6 @@
     <t>Als developer wil ik database-schema's automatisch worden bijgewerkt tijdens de deployment, zodat de data-structuur altijd in sync is met de applicatiecode.</t>
   </si>
   <si>
-    <t>Database Migratie (vacatures)</t>
-  </si>
-  <si>
-    <t>Database Migratie (bedrijven)</t>
-  </si>
-  <si>
-    <t>Als developer zil ik de web applicatie verpakken in een Docker-container zodat de applicatie consistent functioneert in elke omgeving en we geen last hebben van verschillen in lokale serverconfiguraties.</t>
-  </si>
-  <si>
     <t>Containerisatie met Docker</t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>Als beheerder wil ik een rol toewijzen zodat de gebruiker bepaalde rechten heeft.</t>
   </si>
   <si>
-    <t>Inlog</t>
-  </si>
-  <si>
     <t>Als gebruiker wil ik dat mijn persoonlijke inloggegevens gehashed wordt zodat het veilig opgeslaan is.</t>
   </si>
   <si>
@@ -692,13 +677,157 @@
   </si>
   <si>
     <t>Als developer wil ik dat er een algoritme is voor rankings zodat de resultaten gerangschikt worden.</t>
+  </si>
+  <si>
+    <t>Database Update (bedrijven)</t>
+  </si>
+  <si>
+    <t>Database Update (vacatures)</t>
+  </si>
+  <si>
+    <t>Als developer wil ik de web applicatie verpakken in een Docker-container zodat de applicatie consistent functioneert in elke omgeving en we geen last hebben van verschillen in lokale serverconfiguraties.</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Development omgeving</t>
+  </si>
+  <si>
+    <t>Als developer wil ik een development omgeving zodat we vaste versie werken.</t>
+  </si>
+  <si>
+    <t>Soufiane</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>Soufiane, Richard &amp; Angeles</t>
+  </si>
+  <si>
+    <t>S O K R A T E S</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Inloggegevens hash</t>
+  </si>
+  <si>
+    <t>GH-02</t>
+  </si>
+  <si>
+    <t>GH-03</t>
+  </si>
+  <si>
+    <t>GH-04</t>
+  </si>
+  <si>
+    <t>GH-05</t>
+  </si>
+  <si>
+    <t>GH-06</t>
+  </si>
+  <si>
+    <t>GH-07</t>
+  </si>
+  <si>
+    <t>GH-08</t>
+  </si>
+  <si>
+    <t>GH-09</t>
+  </si>
+  <si>
+    <t>GH-10</t>
+  </si>
+  <si>
+    <t>GH-11</t>
+  </si>
+  <si>
+    <t>GH-12</t>
+  </si>
+  <si>
+    <t>GH-13</t>
+  </si>
+  <si>
+    <t>GH-14</t>
+  </si>
+  <si>
+    <t>GH-15</t>
+  </si>
+  <si>
+    <t>GH-16</t>
+  </si>
+  <si>
+    <t>GH-17</t>
+  </si>
+  <si>
+    <t>GH-18</t>
+  </si>
+  <si>
+    <t>GH-19</t>
+  </si>
+  <si>
+    <t>GH-20</t>
+  </si>
+  <si>
+    <t>GH-21</t>
+  </si>
+  <si>
+    <t>GH-22</t>
+  </si>
+  <si>
+    <t>GH-23</t>
+  </si>
+  <si>
+    <t>GH-24</t>
+  </si>
+  <si>
+    <t>GH-25</t>
+  </si>
+  <si>
+    <t>GH-26</t>
+  </si>
+  <si>
+    <t>GH-27</t>
+  </si>
+  <si>
+    <t>GH-28</t>
+  </si>
+  <si>
+    <t>GH-29</t>
+  </si>
+  <si>
+    <t>GH-30</t>
+  </si>
+  <si>
+    <t>GH-31</t>
+  </si>
+  <si>
+    <t>GH-32</t>
+  </si>
+  <si>
+    <t>GH-33</t>
+  </si>
+  <si>
+    <t>GH-34</t>
+  </si>
+  <si>
+    <t>GH-4, GH-5,  GH-24 &amp; GH-34</t>
+  </si>
+  <si>
+    <t>GH-29 &amp; GH-30</t>
+  </si>
+  <si>
+    <t>2 lessen + 2 meetings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,11 +891,6 @@
       <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Century Gothic"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -1057,9 +1181,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1093,9 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1106,6 +1227,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1270,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1138,35 +1281,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1174,6 +1309,10 @@
   </cellStyles>
   <dxfs count="111">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1532,9 +1671,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1560,6 +1696,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4343"/>
       <color rgb="FFE0D7D7"/>
       <color rgb="FF8A1A17"/>
       <color rgb="FF97000B"/>
@@ -1582,10 +1719,10 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5275A149-D9C7-4765-8593-A42F0BE5A234}" name="Status"/>
     <tableColumn id="2" xr3:uid="{5D1A658E-6171-4853-98CD-6AB729C001BE}" name="Totaal aantal" dataDxfId="109">
-      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$52, B15)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$53, B15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8E35AA80-EB15-4700-9B95-52F62AF6B801}" name="Aantal SP" dataDxfId="108">
-      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$53, B15, Backlog!$G$4:$G$53)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1593,174 +1730,176 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J36" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J36" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J36">
-    <sortCondition ref="C3:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J37" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A3:J37" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J37">
+    <sortCondition ref="A3:A37"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="0">
+      <calculatedColumnFormula>A3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2066,8 +2205,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2079,36 +2218,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="26"/>
+      <c r="C3" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
@@ -2131,11 +2270,11 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <f>'Sprint 1'!$F$31+'Sprint 2'!$F$31+'Sprint 3'!$F$31+'Sprint 4'!$F$31+'Sprint 5'!$F$31+'Sprint 6'!$F$31+'Sprint 7'!$F$31</f>
-        <v>0</v>
+        <f>'Sprint 0'!F31+'Sprint 1'!F31+'Sprint 2'!F31+'Sprint 3'!F31+'Sprint 4'!F31+'Sprint 5'!F31+'Sprint 6'!F31+'Sprint 7'!F31</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2143,11 +2282,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <f>'Sprint 1'!$G$31+'Sprint 2'!$G$31+'Sprint 3'!$G$31+'Sprint 4'!$G$31+'Sprint 5'!$G$31+'Sprint 6'!$G$31+'Sprint 7'!$G$31</f>
-        <v>0</v>
+        <f>'Sprint 0'!G31+'Sprint 1'!G31+'Sprint 2'!G31+'Sprint 3'!G31+'Sprint 4'!G31+'Sprint 5'!G31+'Sprint 6'!G31+'Sprint 7'!G31</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2155,21 +2294,17 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <f>'Sprint 1'!$H$31+'Sprint 2'!$H$31+'Sprint 3'!$H$31+'Sprint 4'!$H$31+'Sprint 5'!$H$31+'Sprint 6'!$H$31+'Sprint 7'!$H$31</f>
-        <v>0</v>
+        <f>'Sprint 0'!H31+'Sprint 1'!H31+'Sprint 2'!H31+'Sprint 3'!H31+'Sprint 4'!H31+'Sprint 5'!H31+'Sprint 6'!H31+'Sprint 7'!H31</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <f>'Sprint 1'!$I$31+'Sprint 2'!$I$31+'Sprint 3'!$I$31+'Sprint 4'!$I$31+'Sprint 5'!$I$31+'Sprint 6'!$I$31+'Sprint 7'!$I$31</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -2192,12 +2327,12 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Backlog!$I$4:$I$52, B15)</f>
-        <v>0</v>
+        <f>COUNTIF(Backlog!$I$4:$I$53, B15)</f>
+        <v>30</v>
       </c>
       <c r="D15">
-        <f>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</f>
-        <v>0</v>
+        <f>SUMIF(Backlog!$I$4:$I$53, B15, Backlog!$G$4:$G$53)</f>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2205,12 +2340,12 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Backlog!$I$4:$I$52, B16)</f>
-        <v>0</v>
+        <f>COUNTIF(Backlog!$I$4:$I$53, B16)</f>
+        <v>2</v>
       </c>
       <c r="D16">
-        <f>SUMIF(Backlog!$I$4:$I$52, B16, Backlog!$G$4:$G$52)</f>
-        <v>0</v>
+        <f>SUMIF(Backlog!$I$4:$I$53, B16, Backlog!$G$4:$G$53)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -2218,12 +2353,12 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Backlog!$I$4:$I$52, B17)</f>
-        <v>0</v>
+        <f>COUNTIF(Backlog!$I$4:$I$53, B17)</f>
+        <v>2</v>
       </c>
       <c r="D17">
-        <f>SUMIF(Backlog!$I$4:$I$52, B17, Backlog!$G$4:$G$52)</f>
-        <v>0</v>
+        <f>SUMIF(Backlog!$I$4:$I$53, B17, Backlog!$G$4:$G$53)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -2232,11 +2367,11 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(Table4[Totaal aantal])</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <f>SUM(Table4[Aantal SP])</f>
-        <v>0</v>
+        <v>184.5</v>
       </c>
     </row>
   </sheetData>
@@ -2275,18 +2410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -2333,30 +2468,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -2374,12 +2509,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -2625,166 +2760,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -2794,6 +2923,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2822,18 +2957,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -2880,30 +3015,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -2921,12 +3056,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3172,157 +3307,2483 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="107.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E24">
+      <sortCondition ref="B10"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="48">
+        <v>5</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="48" t="str">
+        <f>A5</f>
+        <v>GH-02</v>
+      </c>
+      <c r="G6" s="48">
+        <v>3</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="48" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G7" s="48">
+        <v>8</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="48" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G8" s="48">
+        <v>5</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="48">
+        <v>13</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="48" t="str">
+        <f>A11</f>
+        <v>GH-08</v>
+      </c>
+      <c r="G10" s="48">
+        <v>2</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="48">
+        <v>2</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="48" t="str">
+        <f>A11</f>
+        <v>GH-08</v>
+      </c>
+      <c r="G12" s="48">
+        <v>2</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="48" t="str">
+        <f>A10</f>
+        <v>GH-07</v>
+      </c>
+      <c r="G13" s="48">
+        <v>3</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="48" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G14" s="48">
+        <v>2</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="48" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G15" s="48">
+        <v>2</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="48" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G16" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="48" t="str">
+        <f>A29</f>
+        <v>GH-26</v>
+      </c>
+      <c r="G17" s="48">
+        <v>40</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="48" t="str">
+        <f>A29</f>
+        <v>GH-26</v>
+      </c>
+      <c r="G18" s="48">
+        <v>5</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>A21</f>
+        <v>GH-18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>A21</f>
+        <v>GH-18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="3">
+        <v>13</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="3">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="3">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I37" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
+      <formula1>$L$3:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E37" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
+      <formula1>$L$8:$L$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="21">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="F15" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="L15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUM(F17:F30)</f>
+        <v>10</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
+        <v>10</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3341,1826 +5802,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-  <dimension ref="A1:O55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="107.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E24">
-      <sortCondition ref="B10"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="47.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I36" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
-      <formula1>$L$3:$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E36" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
-      <formula1>$L$8:$L$10</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="22">
-        <v>46058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="22">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F17:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5189,18 +5830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -5247,30 +5888,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5288,12 +5929,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -5539,166 +6180,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -5708,6 +6343,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5722,7 +6363,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5736,18 +6377,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -5794,30 +6435,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5835,12 +6476,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6086,166 +6727,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6255,6 +6890,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6283,18 +6924,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -6341,30 +6982,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -6382,12 +7023,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6633,166 +7274,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6802,6 +7437,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6830,18 +7471,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -6888,30 +7529,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -6929,12 +7570,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7180,166 +7821,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7349,6 +7984,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7377,18 +8018,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -7435,30 +8076,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -7476,12 +8117,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7727,166 +8368,160 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7896,6 +8531,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7911,6 +8552,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB83581AE75E3448E2425BE2C4A9358" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3613ffd620ebef032c0b03220f523539">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87f001ec-f7b3-49be-8676-481a173a404e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="972cec87c5ab16132ba820573bf22a25" ns2:_="">
     <xsd:import namespace="87f001ec-f7b3-49be-8676-481a173a404e"/>
@@ -8042,15 +8692,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
   <ds:schemaRefs>
@@ -8068,6 +8709,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5025CB3-4618-43BF-8CBB-8A6ABF966F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8083,12 +8732,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\J2S2\AI Project\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C70AB-D512-4ABB-BD5C-8ED81627236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EEAFF-9AC4-4448-B5A6-EA46F3D498F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
   <si>
     <t>Dashboard</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Database opstellen</t>
   </si>
   <si>
-    <t>Als gebruiker wil ik mijn data opslaan zodat mijn data later toegankelijk is</t>
-  </si>
-  <si>
     <t>Cloud Omgeving inrichten</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>Inloggen</t>
   </si>
   <si>
-    <t>Als gebruiker wil ik inloggen zodat ik toegang heb tot mijn persoonlijke account.</t>
-  </si>
-  <si>
     <t>Account creatie</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>Model (her)training</t>
   </si>
   <si>
-    <t>Als beheerder wil ik mijn model automatisch of manueel (via een knop) hertrainen zodat het up to date blijft.</t>
-  </si>
-  <si>
     <t>Hertraining model</t>
   </si>
   <si>
@@ -613,9 +604,6 @@
     <t>Handleiding</t>
   </si>
   <si>
-    <t>Als gebruiker wil ik een handleiding zodat ik weet hoe ik de applicatie kan gebruiken.</t>
-  </si>
-  <si>
     <t>REQ-NF03</t>
   </si>
   <si>
@@ -625,18 +613,6 @@
     <t>Formulier beheer</t>
   </si>
   <si>
-    <t>Productsformulier</t>
-  </si>
-  <si>
-    <t>Als gebruiker wil ik een productsformulier invullen zodat ik een prospectielijst kan genereren van potentiele klanten.</t>
-  </si>
-  <si>
-    <t>Klantsformulier</t>
-  </si>
-  <si>
-    <t>Als gebruiker wil ik een klantsformulier invullen zodat ik een prospectielijst kan genereren van bedrijven met openstaande vacatures.</t>
-  </si>
-  <si>
     <t>Formulier opslaan</t>
   </si>
   <si>
@@ -811,9 +787,6 @@
     <t>GH-33</t>
   </si>
   <si>
-    <t>GH-34</t>
-  </si>
-  <si>
     <t>GH-4, GH-5,  GH-24 &amp; GH-34</t>
   </si>
   <si>
@@ -821,6 +794,27 @@
   </si>
   <si>
     <t>2 lessen + 2 meetings</t>
+  </si>
+  <si>
+    <t>Als salesmedewerker wil ik dat mijn prospectielijsten permanent worden opgeslagen, zodat ik mijn werk kan hervatten zonder gegevens te verliezen.</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik bedrijven kunnen zoeken zodat ik snel een bedrijfsprofiel kan vinden.</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik veilig kunnen inloggen met mijn credentials zodat alleen ik toegang heb tot mijn data.</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik het AI model kunnen bijwerken met nieuwe data zodat de voorspellingen relevant blijven.</t>
+  </si>
+  <si>
+    <t>Als nieuwe gebruiker wil ik toegang tot een handleiding zodat ik zelfstandig kan starten zonder hulp.</t>
+  </si>
+  <si>
+    <t>Product &amp; klant formulier</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik een formulier invullen over mijn product of ideale werkgever zodat ik een gepersonaliseerde prospectielijst ontvang.</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1246,7 +1240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,8 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1281,25 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1287,6 @@
   </cellStyles>
   <dxfs count="111">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1650,6 +1624,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1719,10 +1697,10 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5275A149-D9C7-4765-8593-A42F0BE5A234}" name="Status"/>
     <tableColumn id="2" xr3:uid="{5D1A658E-6171-4853-98CD-6AB729C001BE}" name="Totaal aantal" dataDxfId="109">
-      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$53, B15)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$52, B15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8E35AA80-EB15-4700-9B95-52F62AF6B801}" name="Aantal SP" dataDxfId="108">
-      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$53, B15, Backlog!$G$4:$G$53)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1730,29 +1708,29 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F60103EE-0C6F-4D22-BD5C-26F3E55EF072}" name="Table2789101112" displayName="Table2789101112" ref="A16:J31" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{86CBE3EF-BEC2-4EA9-B00F-CF098FE0613D}" name="GH Issue ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B43FED28-8247-4649-99BD-8E320F57C72C}" name="Naam" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DDAFEF96-3EB1-495B-A49D-A8DABA90CEFF}" name="Story points" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1B3B2923-F121-4DF9-BD4C-347C7743D1C1}" name="Verantwoordelijke" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{11342D9D-A111-439C-B2E2-8B6278089C05}" name="Status" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A1D66187-BDA1-44BF-BC4D-CEA8F8E7F368}" name="Teamlid 1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{393AA309-3CE3-414E-98F8-880F51B3981A}" name="Teamlid 2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6CDCC270-4FE9-4EB5-B097-92C96DF82816}" name="Teamlid 3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{91AF5E67-835B-4564-AE5A-983CE3C69379}" name="Teamlid 4" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B686E766-F61E-452D-A999-8C27E87BA3CE}" name="Opmerkingen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J37" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A3:J37" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J37">
-    <sortCondition ref="A3:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J36" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A3:J36" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J36">
+    <sortCondition ref="A3:A36"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="105"/>
@@ -1760,146 +1738,146 @@
     <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="103"/>
     <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="102"/>
     <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="100">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E136A71-E192-4E59-A0AE-01ABAE9AAE69}" name="Table24" displayName="Table24" ref="A16:J31" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{B6DA48E4-0853-43F9-B086-D26EC7805D63}" name="GH Issue ID" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{5DC050A8-DE64-48A1-9BF4-0100253F944D}" name="Naam" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{93B5ABB2-6352-407E-B740-DEE4C236A365}" name="Story points" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{83737B22-1A2C-4ECD-AB68-C84ADFC31F9D}" name="Verantwoordelijke" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{C2D27EC1-9AEA-461C-8838-FB8067C71AD3}" name="Status" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{38A7A10A-1E3A-479E-A257-DAC80E43CA2A}" name="Teamlid 1" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{7988C9D8-34D5-4507-856A-289019DF8FE2}" name="Teamlid 2" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{9793915D-606D-4025-898A-3F783720CDC8}" name="Teamlid 3" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{0BA8E6A4-A2A9-47C8-8F9D-A066E55C6517}" name="Teamlid 4" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{EBE9CA32-642A-466B-85A2-B9A6CE61FD8F}" name="Opmerkingen" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}" name="Table2" displayName="Table2" ref="A16:J31" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{C9D092C8-DF0C-41AE-9A9F-5957EA787EFA}" name="GH Issue ID" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{C5721FD3-090C-4D56-9ACB-3697D4EDA10A}" name="Naam" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{8A37EA2E-3776-4DCB-A3D1-A9343CEBA628}" name="Story points" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{B5EEB923-2F99-4C7C-AD97-5669CF76C276}" name="Verantwoordelijke" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{25F23FF8-DC69-4416-8E59-49F3A223C3D8}" name="Status" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{EAAD0A99-D2D1-42BB-81FB-8AF31743CAEA}" name="Teamlid 1" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{55687A22-E147-4769-A951-CF602C170BA4}" name="Teamlid 2" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{F8166508-ACCD-4E9E-83BA-561D6186C251}" name="Teamlid 3" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{8EADC057-5EC1-4B0E-94F0-1D219CB2E30A}" name="Teamlid 4" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{C8A8C3EF-AA3B-428D-B2E3-1853773624A6}" name="Opmerkingen" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A6C9040B-4936-442D-85EA-A47F1C9DE65E}" name="Table27" displayName="Table27" ref="A16:J31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{8916CFA5-54A5-42F4-B89B-B0612857B9CE}" name="GH Issue ID" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{0DBEA3BE-D0E2-4D62-9923-066AC1CF6ACB}" name="Naam" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{2F7CF326-084D-48D9-AC46-3504270DEADD}" name="Story points" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{A6BBF7CE-67F0-4A27-99E7-483A522B0518}" name="Verantwoordelijke" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{7AC07B42-A8C4-4077-A8C5-24C3CE3F2F6A}" name="Status" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{A9725AE1-FC98-441B-8F0D-264CAF70B2C5}" name="Teamlid 1" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{BA18A645-2446-43D8-AEFE-4544C8D1A835}" name="Teamlid 2" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{E333262D-2C5D-4F38-ABC1-A97AD1AE5650}" name="Teamlid 3" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{33585DD2-D5FA-40A4-9AFD-ED260F809A45}" name="Teamlid 4" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{0BF8D939-F40C-4D0D-8C54-66131D51676C}" name="Opmerkingen" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75FE61FA-5E06-4308-84F2-6A71F826A2CB}" name="Table278" displayName="Table278" ref="A16:J31" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{ECCF15EC-370A-4A23-A8B3-DE00A0BA910C}" name="GH Issue ID" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{710EDF6C-C94D-49D8-8450-2D316F643685}" name="Naam" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{99CCE717-B8F5-4C65-B7E5-B11EE1178CBB}" name="Story points" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{13841C70-F1DE-468D-AF08-91CF711A2FA8}" name="Verantwoordelijke" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{D97DDEBE-A3AA-4687-8A3C-75FD99AFA69B}" name="Status" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{89BAD886-2B58-47A8-9AB2-0A2BF64D5E05}" name="Teamlid 1" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{63D57D67-51F4-451D-B03C-EC8E77E2D2A3}" name="Teamlid 2" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{8A7BBF2B-7ACC-4CF1-86BE-39E8AA3927DD}" name="Teamlid 3" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{6F17A48E-B667-4F21-A278-5A93B0276BBF}" name="Teamlid 4" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{96D8F2BC-463B-42FD-92FB-C88CE96EC27B}" name="Opmerkingen" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE1F9950-A300-4FC4-8042-878DBA07BAEB}" name="Table2789" displayName="Table2789" ref="A16:J31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{29FDC4C7-01ED-4B65-B7E4-986D36F37FE7}" name="GH Issue ID" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{4142CFA4-C685-4374-A3A1-302D4A52AB02}" name="Naam" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{127F64D4-0C21-41B0-977D-7DECC73ABC81}" name="Story points" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{D8394C22-A6D9-454D-8F8C-25598EDFB53F}" name="Verantwoordelijke" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{F4DDA50E-025D-4C0C-A1FD-987D64A50E7F}" name="Status" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{4E0E50BF-17A6-446C-873E-4A578DF00414}" name="Teamlid 1" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{F1C0BB29-5E1A-4A98-84AC-B87F1D75EE27}" name="Teamlid 2" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{6B6D8022-012E-4272-A2BF-61F054BE8935}" name="Teamlid 3" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{65DA05D7-2999-4855-8EEC-FF0F409AE9C9}" name="Teamlid 4" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{C5C5A4E7-E90F-455C-B43F-D7FD5D2D68D9}" name="Opmerkingen" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57AF6B1A-F1D7-4DF4-A491-7B58938427DD}" name="Table278910" displayName="Table278910" ref="A16:J31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{EE975054-A57E-4D0D-90A1-8E725F3F3074}" name="GH Issue ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{0C8F423B-F884-4277-A47A-89095EEEBE2B}" name="Naam" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{F503BACC-D3AA-4CD0-AB78-C288EA932F9F}" name="Story points" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D1ACEE8F-58B5-4EBB-AEC9-372AB0CB60BC}" name="Verantwoordelijke" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{9395E20C-F3BB-4A8C-9CAB-BAA621965553}" name="Status" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{151BE4BC-69EA-4049-8656-B32022B90D05}" name="Teamlid 1" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{04B6F6E4-0EE8-4AB9-8334-CDF961B6728F}" name="Teamlid 2" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{CA5CBFAD-A008-4C9A-80B3-DF772767053E}" name="Teamlid 3" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F2C90162-8D73-4A5B-8FCC-DBDF4A5C0D92}" name="Teamlid 4" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{0DED0096-FC49-4F27-BA60-C37EC36DF615}" name="Opmerkingen" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{14D66498-26B0-41D1-9481-24C10689A9AD}" name="Table27891011" displayName="Table27891011" ref="A16:J31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A16:J31" xr:uid="{198F3B95-5438-449A-BDFC-00DF23AD9062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B521FFE7-4C63-4BB4-9129-44090DE5A213}" name="GH Issue ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{18B91A2E-2E46-46C9-903F-D09E26557EA2}" name="Naam" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D32295CD-1979-480C-A04C-6E142033E375}" name="Story points" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{25E968EF-41A7-4B0D-B2EC-9C23D3B1CC39}" name="Verantwoordelijke" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{E0FCE262-00D8-40A7-8121-8D15978B3FC7}" name="Status" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3F9C790A-528C-4202-80B4-54873DA40E53}" name="Teamlid 1" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{A2407A9E-5D0E-4E25-B95D-9FE26E44458A}" name="Teamlid 2" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{7667DB09-8CBC-4FBC-951C-2CAB10DC6766}" name="Teamlid 3" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{87FA53ED-76BC-43BD-BFB9-9E699AFAC43F}" name="Teamlid 4" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{64076762-98B1-41D1-8654-5E068FAB1FE6}" name="Opmerkingen" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2236,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D3" s="33"/>
     </row>
@@ -2327,11 +2305,11 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Backlog!$I$4:$I$53, B15)</f>
-        <v>30</v>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B15)</f>
+        <v>29</v>
       </c>
       <c r="D15">
-        <f>SUMIF(Backlog!$I$4:$I$53, B15, Backlog!$G$4:$G$53)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</f>
         <v>172</v>
       </c>
     </row>
@@ -2340,11 +2318,11 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Backlog!$I$4:$I$53, B16)</f>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B16)</f>
         <v>2</v>
       </c>
       <c r="D16">
-        <f>SUMIF(Backlog!$I$4:$I$53, B16, Backlog!$G$4:$G$53)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B16, Backlog!$G$4:$G$52)</f>
         <v>11</v>
       </c>
     </row>
@@ -2353,11 +2331,11 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Backlog!$I$4:$I$53, B17)</f>
+        <f>COUNTIF(Backlog!$I$4:$I$52, B17)</f>
         <v>2</v>
       </c>
       <c r="D17">
-        <f>SUMIF(Backlog!$I$4:$I$53, B17, Backlog!$G$4:$G$53)</f>
+        <f>SUMIF(Backlog!$I$4:$I$52, B17, Backlog!$G$4:$G$52)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -2367,7 +2345,7 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(Table4[Totaal aantal])</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <f>SUM(Table4[Aantal SP])</f>
@@ -2468,30 +2446,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -2509,12 +2487,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -2760,17 +2738,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -2902,18 +2880,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -2923,12 +2907,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3015,30 +2993,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -3056,12 +3034,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3307,17 +3285,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -3449,18 +3427,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -3470,12 +3454,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3680,7 +3658,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>77</v>
@@ -3692,12 +3670,12 @@
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>78</v>
@@ -3709,7 +3687,7 @@
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3726,7 +3704,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3743,7 +3721,7 @@
         <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3758,12 +3736,12 @@
         <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>82</v>
@@ -3773,7 +3751,7 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3790,12 +3768,12 @@
         <v>87</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>101</v>
@@ -3804,22 +3782,22 @@
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3827,7 +3805,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>93</v>
@@ -3836,12 +3814,12 @@
         <v>102</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>89</v>
@@ -3850,7 +3828,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3858,13 +3836,13 @@
         <v>100</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
         <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3878,7 +3856,7 @@
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -4040,11 +4018,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4113,61 +4091,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="48">
+      <c r="F4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="48"/>
+      <c r="J4" s="3"/>
       <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>185</v>
+      <c r="F5" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="3"/>
@@ -4177,403 +4155,403 @@
     </row>
     <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="D6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="48" t="str">
+      <c r="F6" s="3" t="str">
         <f>A5</f>
         <v>GH-02</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="48" t="str">
+      <c r="F7" s="3" t="str">
         <f>A19</f>
         <v>GH-16</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="3">
         <v>8</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="48"/>
+      <c r="J7" s="3"/>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="48" t="str">
+      <c r="F8" s="3" t="str">
         <f>A19</f>
         <v>GH-16</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="3"/>
       <c r="L8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="F9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="3">
         <v>13</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="3"/>
       <c r="L9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="48" t="s">
+      <c r="D10" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="48" t="str">
+      <c r="F10" s="3" t="str">
         <f>A11</f>
         <v>GH-08</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="3"/>
       <c r="L10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="48" t="s">
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="F11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="48" t="str">
+      <c r="F12" s="3" t="str">
         <f>A11</f>
         <v>GH-08</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="48" t="s">
+      <c r="D13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="48" t="str">
+      <c r="F13" s="3" t="str">
         <f>A10</f>
         <v>GH-07</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="48" t="s">
+      <c r="D14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="48" t="str">
+      <c r="F14" s="3" t="str">
         <f>A19</f>
         <v>GH-16</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="48" t="str">
+      <c r="F15" s="3" t="str">
         <f>A19</f>
         <v>GH-16</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="48"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="48" t="s">
+      <c r="D16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="48" t="str">
+      <c r="F16" s="3" t="str">
         <f>A19</f>
         <v>GH-16</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="3">
         <v>0.5</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="48"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="48" t="s">
+      <c r="D17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="48" t="str">
+      <c r="F17" s="3" t="str">
         <f>A29</f>
         <v>GH-26</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="3">
         <v>40</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="48"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="48" t="s">
+      <c r="D18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="48" t="str">
+      <c r="F18" s="3" t="str">
         <f>A29</f>
         <v>GH-26</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="48"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
@@ -4586,23 +4564,23 @@
         <v>5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>32</v>
@@ -4615,486 +4593,458 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3">
         <v>8</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3">
         <v>8</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3">
         <v>0.5</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G28" s="3">
         <v>8</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G29" s="3">
         <v>5</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G31" s="3">
         <v>13</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>221</v>
+      <c r="F34" s="47" t="s">
+        <v>202</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="3">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>185</v>
+      <c r="F36" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="3">
-        <v>8</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5102,10 +5052,10 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I37" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I36" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E37" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E36" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
       <formula1>$L$8:$L$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -5120,9 +5070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5215,32 +5165,32 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5258,12 +5208,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="L15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5311,16 +5261,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -5336,7 +5286,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>9</v>
@@ -5347,16 +5297,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="3">
         <v>0.5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -5371,16 +5321,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -5399,16 +5349,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -5421,16 +5371,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -5443,16 +5393,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3">
         <v>0.5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -5465,16 +5415,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -5487,16 +5437,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -5508,17 +5458,17 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -5633,17 +5583,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -5775,24 +5725,18 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -5802,6 +5746,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5888,30 +5838,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -5929,12 +5879,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6180,17 +6130,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -6322,18 +6272,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6343,12 +6299,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6435,30 +6385,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -6476,12 +6426,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6727,17 +6677,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -6869,18 +6819,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6890,12 +6846,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6982,30 +6932,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -7023,12 +6973,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7274,17 +7224,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -7416,18 +7366,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7437,12 +7393,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7529,30 +7479,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -7570,12 +7520,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7821,17 +7771,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -7963,18 +7913,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7984,12 +7940,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8076,30 +8026,30 @@
       <c r="B9" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -8117,12 +8067,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -8368,17 +8318,17 @@
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
@@ -8510,18 +8460,24 @@
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -8531,12 +8487,6 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8552,15 +8502,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB83581AE75E3448E2425BE2C4A9358" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3613ffd620ebef032c0b03220f523539">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87f001ec-f7b3-49be-8676-481a173a404e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="972cec87c5ab16132ba820573bf22a25" ns2:_="">
     <xsd:import namespace="87f001ec-f7b3-49be-8676-481a173a404e"/>
@@ -8692,6 +8633,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
   <ds:schemaRefs>
@@ -8709,14 +8659,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5025CB3-4618-43BF-8CBB-8A6ABF966F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8732,4 +8674,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scrum planning en rapport template.xlsx
+++ b/Scrum planning en rapport template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soufi\Desktop\School\J2S2\AI Project\AI-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstep\OneDrive\Bureaublad\AP\J2\S2\AI-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EEAFF-9AC4-4448-B5A6-EA46F3D498F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AEF443-A4AB-4AF4-9967-D7A8D39A2AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E07F6153-1B8C-43A7-97BD-457FD435295E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="227">
   <si>
     <t>Dashboard</t>
   </si>
@@ -403,18 +403,6 @@
     <t>REQ-F06</t>
   </si>
   <si>
-    <t>Als gebruiker wil ik bedrijven kunnen zoeken op basis van een zoekopdracht (query), zodat ik potentiële klanten kan vinden.</t>
-  </si>
-  <si>
-    <t>Het systeem haalt bedrijfsinformatie op uit vacatures op en slaat deze op in de database.</t>
-  </si>
-  <si>
-    <t>Gebruikers moeten kunnen inloggen om toegang te krijgen tot de applicatie.</t>
-  </si>
-  <si>
-    <t>Het systeem biedt een REST API aan voor integratie met een extern CRM-systeem.</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
@@ -430,12 +418,6 @@
     <t>Gebruiksvriendelijke interface</t>
   </si>
   <si>
-    <t>De applicatie draait op een cloudplatform.</t>
-  </si>
-  <si>
-    <t>De front-end is intuïtief en toegankelijk voor niet-technische gebruikers.</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -490,9 +472,6 @@
     <t>Containerisatie met Docker</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Zoeken en filteren</t>
   </si>
   <si>
@@ -523,9 +502,6 @@
     <t>Als gebruiker wil ik dat mijn persoonlijke inloggegevens gehashed wordt zodat het veilig opgeslaan is.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Als gebruiker wil ik mijn prospectielijsten opslaan zodat ik later het kan bekijken.</t>
   </si>
   <si>
@@ -815,6 +791,48 @@
   </si>
   <si>
     <t>Als gebruiker wil ik een formulier invullen over mijn product of ideale werkgever zodat ik een gepersonaliseerde prospectielijst ontvang.</t>
+  </si>
+  <si>
+    <t>Functionaliteit om binnen de applicatie gericht te zoeken en data te filteren op relevante criteria.</t>
+  </si>
+  <si>
+    <t>Het automatisch ophalen en synchroniseren van data uit de benodigde gegevensbronnen.</t>
+  </si>
+  <si>
+    <t>Veilige toegang via login en het beheren van gebruikersrollen en bijbehorende rechten.</t>
+  </si>
+  <si>
+    <t>Koppeling met een CRM-systeem voor een naadloze uitwisseling van prospectgegevens.</t>
+  </si>
+  <si>
+    <t>Het volledig beheren (aanmaken, inzien, bewerken en verwijderen) van lijsten met prospecten.</t>
+  </si>
+  <si>
+    <t>Het initieel trainen van het model op bedrijfsdata en het periodiek hertrainen voor optimale prestaties en zodat het up to date is.</t>
+  </si>
+  <si>
+    <t>Hosting en configuratie van de volledige applicatie binnen een cloudomgeving.</t>
+  </si>
+  <si>
+    <t>Inrichten van de ontwikkelinfrastructuur, inclusief versiebeheer en deployment-pipelines.</t>
+  </si>
+  <si>
+    <t>Implementatie van een AI-algoritme om prospecten automatisch te scoren en te rangschikken.</t>
+  </si>
+  <si>
+    <t>Een intuïtief UI-design en een heldere handleiding voor een optimale gebruikerservaring.</t>
+  </si>
+  <si>
+    <t>Gebruik van gestandaardiseerde formulieren om consistente data-invoer te waarborgen.</t>
+  </si>
+  <si>
+    <t>Genereren van periodieke rapportages en overzichten over de resultaten en modelprestaties.</t>
+  </si>
+  <si>
+    <t>Mogelijkheid voor gebruikers om feedback te geven op modeloutput ter verbetering van de accuratesse.</t>
+  </si>
+  <si>
+    <t>Optioneel? We hebben hiervoor geen userstories.</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1258,14 +1276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1275,10 +1289,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1615,38 +1630,10 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1657,10 +1644,38 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1692,14 +1707,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA82689C-D0AA-4F4B-919B-87E3028818E8}" name="Table4" displayName="Table4" ref="B14:D17" totalsRowShown="0" headerRowDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA82689C-D0AA-4F4B-919B-87E3028818E8}" name="Table4" displayName="Table4" ref="B14:D17" totalsRowShown="0" headerRowDxfId="98">
   <autoFilter ref="B14:D17" xr:uid="{AA82689C-D0AA-4F4B-919B-87E3028818E8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5275A149-D9C7-4765-8593-A42F0BE5A234}" name="Status"/>
-    <tableColumn id="2" xr3:uid="{5D1A658E-6171-4853-98CD-6AB729C001BE}" name="Totaal aantal" dataDxfId="109">
+    <tableColumn id="2" xr3:uid="{5D1A658E-6171-4853-98CD-6AB729C001BE}" name="Totaal aantal" dataDxfId="97">
       <calculatedColumnFormula>COUNTIF(Backlog!$I$4:$I$52, B15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8E35AA80-EB15-4700-9B95-52F62AF6B801}" name="Aantal SP" dataDxfId="108">
+    <tableColumn id="3" xr3:uid="{8E35AA80-EB15-4700-9B95-52F62AF6B801}" name="Aantal SP" dataDxfId="96">
       <calculatedColumnFormula>SUMIF(Backlog!$I$4:$I$52, B15, Backlog!$G$4:$G$52)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1727,24 +1742,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J36" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}" name="Table1" displayName="Table1" ref="A3:J36" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A3:J36" xr:uid="{0C31D63E-5C3E-42E3-BE92-09D26924F40D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J36">
     <sortCondition ref="A3:A36"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{86C438A9-95F7-480B-8605-663A6D33F9E8}" name="GH Issue ID" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{A67F3775-FD76-4B45-9318-AEB1E2DDB617}" name="Naam" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{D71A8556-082B-4B32-B6BE-5BE60F40C14A}" name="Epic ID" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{C10F2FCC-7C0D-4C38-B585-FDBE69D8CB6A}" name="Omschrijving" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{B10BE454-0779-4408-827E-18CAFA3FA6F4}" name="Prioriteit" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{9DD6B241-13CA-4C6A-B38D-F66ABDFB4D1F}" name="Afhankelijkheden" dataDxfId="103">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{3917555F-8AC1-4D61-A1D1-AD989DECCDD8}" name="Story points" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{59A344ED-FCCF-4D1D-863D-3BC0B67970BA}" name="Sprint" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{7FB5F6F2-7561-43E7-940F-616623FD98C9}" name="Status" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{FC693D5F-36C5-47E3-8471-4017AADBBDA4}" name="Opmerkingen" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2187,15 +2202,15 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2208,17 +2223,17 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2227,12 +2242,12 @@
       </c>
       <c r="D4" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2279,17 +2294,17 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2300,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2328,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2354,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -2377,17 +2392,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -2401,7 +2416,7 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -2415,37 +2430,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -2459,7 +2474,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2471,7 +2486,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2485,7 +2500,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -2494,7 +2509,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2538,7 +2553,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2550,7 +2565,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2562,7 +2577,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2574,7 +2589,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2586,7 +2601,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2598,7 +2613,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2610,7 +2625,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2622,7 +2637,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2634,7 +2649,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2646,7 +2661,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2658,7 +2673,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2670,7 +2685,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2682,7 +2697,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2694,7 +2709,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2720,7 +2735,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2749,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -2750,145 +2765,2979 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7E31E7-75C9-4B0E-AFCF-74DB9BA81D19}">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="F15" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUM(F17:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="107.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E24">
+      <sortCondition ref="B10"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E9"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>A5</f>
+        <v>GH-02</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>A11</f>
+        <v>GH-08</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>A11</f>
+        <v>GH-08</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>A10</f>
+        <v>GH-07</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>A19</f>
+        <v>GH-16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>A29</f>
+        <v>GH-26</v>
+      </c>
+      <c r="G17" s="3">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>A29</f>
+        <v>GH-26</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>A21</f>
+        <v>GH-18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>A21</f>
+        <v>GH-18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="3">
+        <v>13</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="3">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I36" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
+      <formula1>$L$3:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E36" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
+      <formula1>$L$8:$L$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="21">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="F15" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="L15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUM(F17:F30)</f>
+        <v>10</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
+        <v>10</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2915,28 +5764,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7E31E7-75C9-4B0E-AFCF-74DB9BA81D19}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C0E642-EED7-4937-B528-376AB48F1EE7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2948,7 +5797,7 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -2962,37 +5811,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -3006,7 +5855,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3018,7 +5867,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -3032,7 +5881,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -3041,7 +5890,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3073,7 +5922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3085,7 +5934,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3097,7 +5946,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3109,7 +5958,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3121,7 +5970,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3133,7 +5982,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3145,7 +5994,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3157,7 +6006,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3169,7 +6018,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3181,7 +6030,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3193,7 +6042,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3205,7 +6054,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3217,7 +6066,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3229,7 +6078,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3241,7 +6090,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3267,7 +6116,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -3281,7 +6130,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -3297,154 +6146,148 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -3454,6 +6297,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3462,584 +6311,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-  <dimension ref="A1:O55"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE36C8E1-C9DA-45BD-B73B-7521063AD367}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="107.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A10:D10" xr:uid="{77B3F3E5-4B5F-40F9-A800-013CC5F2EE00}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E24">
-      <sortCondition ref="B10"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4E451-46AC-4478-9EE0-DA5C244416C9}">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="47.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4051,1063 +6344,11 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>A5</f>
-        <v>GH-02</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f>A19</f>
-        <v>GH-16</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>A19</f>
-        <v>GH-16</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f>A11</f>
-        <v>GH-08</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f>A11</f>
-        <v>GH-08</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f>A10</f>
-        <v>GH-07</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f>A19</f>
-        <v>GH-16</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f>A19</f>
-        <v>GH-16</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f>A19</f>
-        <v>GH-16</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f>A29</f>
-        <v>GH-26</v>
-      </c>
-      <c r="G17" s="3">
-        <v>40</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f>A29</f>
-        <v>GH-26</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="str">
-        <f>A21</f>
-        <v>GH-18</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3" t="str">
-        <f>A21</f>
-        <v>GH-18</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="3">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="3">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="3">
-        <v>13</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="3">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I36" xr:uid="{BB889DD1-88CD-4BDB-98A5-3CC9C5D63332}">
-      <formula1>$L$3:$L$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E36" xr:uid="{D4954F6E-5C80-4868-8B20-BF00C35F9218}">
-      <formula1>$L$8:$L$10</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FFDAE-1104-4CD3-91B9-BF5E1B8C8EDE}">
-  <dimension ref="A1:M45"/>
-  <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5117,54 +6358,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="21">
-        <v>46058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="21">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -5178,10 +6402,8 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
-        <v>44</v>
-      </c>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -5192,7 +6414,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -5206,7 +6428,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -5214,14 +6436,8 @@
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
-      <c r="L15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5252,234 +6468,116 @@
       <c r="J16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9</v>
-      </c>
-      <c r="H17" s="3">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5491,7 +6589,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5503,7 +6601,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5515,7 +6613,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5527,7 +6625,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5539,7 +6637,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5549,15 +6647,15 @@
       </c>
       <c r="F31" s="5">
         <f>SUM(F17:F30)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
@@ -5565,7 +6663,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -5579,7 +6677,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -5595,145 +6693,145 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5760,28 +6858,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C0E642-EED7-4937-B528-376AB48F1EE7}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DDB97A-7F06-4418-A020-7176AC18CA0E}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5793,7 +6891,7 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -5807,37 +6905,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -5851,7 +6949,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -5863,7 +6961,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -5877,7 +6975,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -5886,7 +6984,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5918,7 +7016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5930,7 +7028,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5942,7 +7040,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5954,7 +7052,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5966,7 +7064,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5978,7 +7076,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5990,7 +7088,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6002,7 +7100,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6014,7 +7112,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6026,7 +7124,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6038,7 +7136,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6050,7 +7148,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6062,7 +7160,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6074,7 +7172,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6086,7 +7184,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6112,7 +7210,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -6126,7 +7224,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -6142,154 +7240,148 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -6299,1100 +7391,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE36C8E1-C9DA-45BD-B73B-7521063AD367}">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="F15" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F17:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DDB97A-7F06-4418-A020-7176AC18CA0E}">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="F15" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F17:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" ref="G31:I31" si="0">SUM(G17:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7410,17 +7414,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
         <v>68</v>
       </c>
@@ -7434,7 +7438,7 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -7448,37 +7452,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -7492,7 +7496,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -7504,7 +7508,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -7518,7 +7522,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -7527,7 +7531,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7571,7 +7575,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7583,7 +7587,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7595,7 +7599,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7607,7 +7611,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7619,7 +7623,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7631,7 +7635,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7643,7 +7647,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7655,7 +7659,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7667,7 +7671,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7679,7 +7683,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7691,7 +7695,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7703,7 +7707,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7715,7 +7719,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7727,7 +7731,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7753,7 +7757,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -7767,7 +7771,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -7783,154 +7787,148 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -7940,6 +7938,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7957,17 +7961,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
@@ -7981,7 +7985,7 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -7995,37 +7999,37 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>43</v>
       </c>
@@ -8039,7 +8043,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -8051,7 +8055,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -8065,7 +8069,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="F15" s="42" t="s">
         <v>46</v>
@@ -8074,7 +8078,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8118,7 +8122,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8130,7 +8134,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8142,7 +8146,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8154,7 +8158,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8166,7 +8170,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8178,7 +8182,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8190,7 +8194,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8202,7 +8206,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8214,7 +8218,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8226,7 +8230,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8238,7 +8242,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8250,7 +8254,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8262,7 +8266,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8274,7 +8278,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8300,7 +8304,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -8314,7 +8318,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -8330,154 +8334,148 @@
       <c r="I35" s="43"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
@@ -8487,6 +8485,12 @@
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8496,12 +8500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB83581AE75E3448E2425BE2C4A9358" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3613ffd620ebef032c0b03220f523539">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87f001ec-f7b3-49be-8676-481a173a404e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="972cec87c5ab16132ba820573bf22a25" ns2:_="">
     <xsd:import namespace="87f001ec-f7b3-49be-8676-481a173a404e"/>
@@ -8633,6 +8631,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8643,22 +8647,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="87f001ec-f7b3-49be-8676-481a173a404e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5025CB3-4618-43BF-8CBB-8A6ABF966F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8676,6 +8664,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{959E2576-8ACA-4472-AE2B-4AF07B9AFF6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="87f001ec-f7b3-49be-8676-481a173a404e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA98B7-DD2A-4000-A348-80CCBB56207C}">
   <ds:schemaRefs>
